--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2546.86825789463</v>
+        <v>2651.013099940439</v>
       </c>
       <c r="AB2" t="n">
-        <v>3484.737510349208</v>
+        <v>3627.233077782455</v>
       </c>
       <c r="AC2" t="n">
-        <v>3152.159053221161</v>
+        <v>3281.055043692359</v>
       </c>
       <c r="AD2" t="n">
-        <v>2546868.257894631</v>
+        <v>2651013.099940439</v>
       </c>
       <c r="AE2" t="n">
-        <v>3484737.510349208</v>
+        <v>3627233.077782455</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.024838103225391e-06</v>
+        <v>1.732539662075931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.76944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>3152159.053221161</v>
+        <v>3281055.043692359</v>
       </c>
     </row>
     <row r="3">
@@ -3783,28 +3783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>873.7893540049963</v>
+        <v>936.1909183779097</v>
       </c>
       <c r="AB3" t="n">
-        <v>1195.557143015293</v>
+        <v>1280.937716353038</v>
       </c>
       <c r="AC3" t="n">
-        <v>1081.454847260902</v>
+        <v>1158.68681851168</v>
       </c>
       <c r="AD3" t="n">
-        <v>873789.3540049964</v>
+        <v>936190.9183779097</v>
       </c>
       <c r="AE3" t="n">
-        <v>1195557.143015293</v>
+        <v>1280937.716353039</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.918526106123433e-06</v>
+        <v>3.243363572378728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.56111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1081454.847260902</v>
+        <v>1158686.81851168</v>
       </c>
     </row>
     <row r="4">
@@ -3889,28 +3889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>680.3182709610912</v>
+        <v>721.9762972879655</v>
       </c>
       <c r="AB4" t="n">
-        <v>930.8414718528322</v>
+        <v>987.8398212956763</v>
       </c>
       <c r="AC4" t="n">
-        <v>842.0032682234082</v>
+        <v>893.561775193113</v>
       </c>
       <c r="AD4" t="n">
-        <v>680318.2709610913</v>
+        <v>721976.2972879655</v>
       </c>
       <c r="AE4" t="n">
-        <v>930841.4718528322</v>
+        <v>987839.8212956763</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.242973072895429e-06</v>
+        <v>3.791857267532731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.033333333333335</v>
       </c>
       <c r="AH4" t="n">
-        <v>842003.2682234083</v>
+        <v>893561.775193113</v>
       </c>
     </row>
     <row r="5">
@@ -3995,28 +3995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>596.9025800835999</v>
+        <v>638.4752655559026</v>
       </c>
       <c r="AB5" t="n">
-        <v>816.7084435536913</v>
+        <v>873.5900258743378</v>
       </c>
       <c r="AC5" t="n">
-        <v>738.7629359584261</v>
+        <v>790.2158198961921</v>
       </c>
       <c r="AD5" t="n">
-        <v>596902.5800835999</v>
+        <v>638475.2655559026</v>
       </c>
       <c r="AE5" t="n">
-        <v>816708.4435536913</v>
+        <v>873590.0258743378</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.412782546511707e-06</v>
+        <v>4.078928607982037e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.397222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>738762.9359584261</v>
+        <v>790215.8198961921</v>
       </c>
     </row>
     <row r="6">
@@ -4101,28 +4101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>538.8978867788086</v>
+        <v>590.7996260925694</v>
       </c>
       <c r="AB6" t="n">
-        <v>737.3438631876115</v>
+        <v>808.3581126598357</v>
       </c>
       <c r="AC6" t="n">
-        <v>666.9727997535967</v>
+        <v>731.2095489253171</v>
       </c>
       <c r="AD6" t="n">
-        <v>538897.8867788085</v>
+        <v>590799.6260925694</v>
       </c>
       <c r="AE6" t="n">
-        <v>737343.8631876116</v>
+        <v>808358.1126598357</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.533866621341184e-06</v>
+        <v>4.283627244213073e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.995833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>666972.7997535968</v>
+        <v>731209.5489253171</v>
       </c>
     </row>
     <row r="7">
@@ -4207,28 +4207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>520.9251168965081</v>
+        <v>562.5830537148315</v>
       </c>
       <c r="AB7" t="n">
-        <v>712.7527265320012</v>
+        <v>769.7509535052968</v>
       </c>
       <c r="AC7" t="n">
-        <v>644.7286066665208</v>
+        <v>696.2870028549992</v>
       </c>
       <c r="AD7" t="n">
-        <v>520925.1168965081</v>
+        <v>562583.0537148315</v>
       </c>
       <c r="AE7" t="n">
-        <v>712752.7265320013</v>
+        <v>769750.9535052968</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.577340180737791e-06</v>
+        <v>4.357121453365902e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.861111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>644728.6066665208</v>
+        <v>696287.0028549992</v>
       </c>
     </row>
     <row r="8">
@@ -4313,28 +4313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>495.2516360817723</v>
+        <v>536.9095729000956</v>
       </c>
       <c r="AB8" t="n">
-        <v>677.6251374472434</v>
+        <v>734.6233644205391</v>
       </c>
       <c r="AC8" t="n">
-        <v>612.9535453821313</v>
+        <v>664.5119415706098</v>
       </c>
       <c r="AD8" t="n">
-        <v>495251.6360817723</v>
+        <v>536909.5729000956</v>
       </c>
       <c r="AE8" t="n">
-        <v>677625.1374472434</v>
+        <v>734623.3644205391</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.639632831282594e-06</v>
+        <v>4.462430269836567e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.67638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>612953.5453821314</v>
+        <v>664511.9415706098</v>
       </c>
     </row>
     <row r="9">
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>474.8007690790495</v>
+        <v>516.4587058973729</v>
       </c>
       <c r="AB9" t="n">
-        <v>649.643358985542</v>
+        <v>706.6415859588376</v>
       </c>
       <c r="AC9" t="n">
-        <v>587.642308584142</v>
+        <v>639.2007047726204</v>
       </c>
       <c r="AD9" t="n">
-        <v>474800.7690790495</v>
+        <v>516458.7058973728</v>
       </c>
       <c r="AE9" t="n">
-        <v>649643.358985542</v>
+        <v>706641.5859588376</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.685148772664277e-06</v>
+        <v>4.539377227070403e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.545833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>587642.308584142</v>
+        <v>639200.7047726203</v>
       </c>
     </row>
     <row r="10">
@@ -4525,28 +4525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>452.6178157498397</v>
+        <v>494.1051603675709</v>
       </c>
       <c r="AB10" t="n">
-        <v>619.2916635976857</v>
+        <v>676.0564787961343</v>
       </c>
       <c r="AC10" t="n">
-        <v>560.1873364052306</v>
+        <v>611.5345973110578</v>
       </c>
       <c r="AD10" t="n">
-        <v>452617.8157498398</v>
+        <v>494105.1603675709</v>
       </c>
       <c r="AE10" t="n">
-        <v>619291.6635976856</v>
+        <v>676056.4787961344</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.731977673893509e-06</v>
+        <v>4.618543808070598e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>560187.3364052306</v>
+        <v>611534.5973110578</v>
       </c>
     </row>
     <row r="11">
@@ -4631,28 +4631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>444.0606759458018</v>
+        <v>485.5480205635329</v>
       </c>
       <c r="AB11" t="n">
-        <v>607.5834074034364</v>
+        <v>664.348222601885</v>
       </c>
       <c r="AC11" t="n">
-        <v>549.5964997495196</v>
+        <v>600.9437606553469</v>
       </c>
       <c r="AD11" t="n">
-        <v>444060.6759458018</v>
+        <v>485548.0205635329</v>
       </c>
       <c r="AE11" t="n">
-        <v>607583.4074034364</v>
+        <v>664348.222601885</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.7398554329788e-06</v>
+        <v>4.631861550668762e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.394444444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>549596.4997495196</v>
+        <v>600943.7606553469</v>
       </c>
     </row>
     <row r="12">
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>438.9173265529871</v>
+        <v>480.4046711707182</v>
       </c>
       <c r="AB12" t="n">
-        <v>600.5460498556264</v>
+        <v>657.3108650540752</v>
       </c>
       <c r="AC12" t="n">
-        <v>543.2307777290795</v>
+        <v>594.5780386349068</v>
       </c>
       <c r="AD12" t="n">
-        <v>438917.3265529871</v>
+        <v>480404.6711707183</v>
       </c>
       <c r="AE12" t="n">
-        <v>600546.0498556264</v>
+        <v>657310.8650540751</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.748316729774113e-06</v>
+        <v>4.646165792718641e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.372222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>543230.7777290795</v>
+        <v>594578.0386349068</v>
       </c>
     </row>
     <row r="13">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>440.3088567074379</v>
+        <v>481.796201325169</v>
       </c>
       <c r="AB13" t="n">
-        <v>602.4500028029237</v>
+        <v>659.2148180013724</v>
       </c>
       <c r="AC13" t="n">
-        <v>544.9530200793013</v>
+        <v>596.3002809851286</v>
       </c>
       <c r="AD13" t="n">
-        <v>440308.8567074379</v>
+        <v>481796.2013251689</v>
       </c>
       <c r="AE13" t="n">
-        <v>602450.0028029237</v>
+        <v>659214.8180013724</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.748170845346607e-06</v>
+        <v>4.645919167855712e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.372222222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>544953.0200793013</v>
+        <v>596300.2809851286</v>
       </c>
     </row>
   </sheetData>
@@ -5140,28 +5140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1544.475099491582</v>
+        <v>1625.199642242462</v>
       </c>
       <c r="AB2" t="n">
-        <v>2113.218968556872</v>
+        <v>2223.669849264109</v>
       </c>
       <c r="AC2" t="n">
-        <v>1911.536316119254</v>
+        <v>2011.445919790577</v>
       </c>
       <c r="AD2" t="n">
-        <v>1544475.099491582</v>
+        <v>1625199.642242462</v>
       </c>
       <c r="AE2" t="n">
-        <v>2113218.968556873</v>
+        <v>2223669.84926411</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.349485499742858e-06</v>
+        <v>2.337026853183511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.53194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1911536.316119254</v>
+        <v>2011445.919790577</v>
       </c>
     </row>
     <row r="3">
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>687.5047593519474</v>
+        <v>737.9575985712481</v>
       </c>
       <c r="AB3" t="n">
-        <v>940.6743423146938</v>
+        <v>1009.706142756717</v>
       </c>
       <c r="AC3" t="n">
-        <v>850.8977033289101</v>
+        <v>913.3412056234865</v>
       </c>
       <c r="AD3" t="n">
-        <v>687504.7593519475</v>
+        <v>737957.5985712481</v>
       </c>
       <c r="AE3" t="n">
-        <v>940674.3423146938</v>
+        <v>1009706.142756717</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.166541471070059e-06</v>
+        <v>3.751997036938322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.674999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>850897.7033289101</v>
+        <v>913341.2056234865</v>
       </c>
     </row>
     <row r="4">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>553.1235754776832</v>
+        <v>593.5711877076953</v>
       </c>
       <c r="AB4" t="n">
-        <v>756.8080780585041</v>
+        <v>812.15028553432</v>
       </c>
       <c r="AC4" t="n">
-        <v>684.5793772754083</v>
+        <v>734.6398021430084</v>
       </c>
       <c r="AD4" t="n">
-        <v>553123.5754776832</v>
+        <v>593571.1877076953</v>
       </c>
       <c r="AE4" t="n">
-        <v>756808.078058504</v>
+        <v>812150.28553432</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.459770091736618e-06</v>
+        <v>4.259807725345341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.520833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>684579.3772754084</v>
+        <v>734639.8021430084</v>
       </c>
     </row>
     <row r="5">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>485.8685012817288</v>
+        <v>536.1506587918861</v>
       </c>
       <c r="AB5" t="n">
-        <v>664.786718459132</v>
+        <v>733.5849846567595</v>
       </c>
       <c r="AC5" t="n">
-        <v>601.3404070834112</v>
+        <v>663.5726633141101</v>
       </c>
       <c r="AD5" t="n">
-        <v>485868.5012817287</v>
+        <v>536150.6587918862</v>
       </c>
       <c r="AE5" t="n">
-        <v>664786.718459132</v>
+        <v>733584.9846567595</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.620193161097684e-06</v>
+        <v>4.537626954257673e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>8</v>
       </c>
       <c r="AH5" t="n">
-        <v>601340.4070834111</v>
+        <v>663572.66331411</v>
       </c>
     </row>
     <row r="6">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>460.5404918392506</v>
+        <v>500.9027632146912</v>
       </c>
       <c r="AB6" t="n">
-        <v>630.1318185470185</v>
+        <v>685.3572589006366</v>
       </c>
       <c r="AC6" t="n">
-        <v>569.9929221804522</v>
+        <v>619.9477240161134</v>
       </c>
       <c r="AD6" t="n">
-        <v>460540.4918392507</v>
+        <v>500902.7632146912</v>
       </c>
       <c r="AE6" t="n">
-        <v>630131.8185470185</v>
+        <v>685357.2589006366</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.685841359754377e-06</v>
+        <v>4.651315914348797e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.804166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>569992.9221804522</v>
+        <v>619947.7240161134</v>
       </c>
     </row>
     <row r="7">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>428.9465887594335</v>
+        <v>469.308860134874</v>
       </c>
       <c r="AB7" t="n">
-        <v>586.9036465285801</v>
+        <v>642.1290868821982</v>
       </c>
       <c r="AC7" t="n">
-        <v>530.890386228333</v>
+        <v>580.8451880639943</v>
       </c>
       <c r="AD7" t="n">
-        <v>428946.5887594335</v>
+        <v>469308.860134874</v>
       </c>
       <c r="AE7" t="n">
-        <v>586903.6465285801</v>
+        <v>642129.0868821982</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.770203067913207e-06</v>
+        <v>4.797412761914171e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.566666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>530890.386228333</v>
+        <v>580845.1880639943</v>
       </c>
     </row>
     <row r="8">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>407.6384044985216</v>
+        <v>447.8300836733698</v>
       </c>
       <c r="AB8" t="n">
-        <v>557.7488487720561</v>
+        <v>612.7408773508274</v>
       </c>
       <c r="AC8" t="n">
-        <v>504.5180814506761</v>
+        <v>554.2617480036863</v>
       </c>
       <c r="AD8" t="n">
-        <v>407638.4044985216</v>
+        <v>447830.0836733698</v>
       </c>
       <c r="AE8" t="n">
-        <v>557748.8487720562</v>
+        <v>612740.8773508274</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.817439587866183e-06</v>
+        <v>4.879216542393531e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.438888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>504518.0814506761</v>
+        <v>554261.7480036863</v>
       </c>
     </row>
     <row r="9">
@@ -5882,28 +5882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>402.1180982771784</v>
+        <v>442.3097774520266</v>
       </c>
       <c r="AB9" t="n">
-        <v>550.195722261292</v>
+        <v>605.1877508400632</v>
       </c>
       <c r="AC9" t="n">
-        <v>497.6858147332196</v>
+        <v>547.4294812862298</v>
       </c>
       <c r="AD9" t="n">
-        <v>402118.0982771784</v>
+        <v>442309.7774520266</v>
       </c>
       <c r="AE9" t="n">
-        <v>550195.7222612919</v>
+        <v>605187.7508400632</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.828003665810938e-06</v>
+        <v>4.897511317580609e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.411111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>497685.8147332196</v>
+        <v>547429.4812862298</v>
       </c>
     </row>
     <row r="10">
@@ -5988,28 +5988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>403.4556040415639</v>
+        <v>443.6472832164123</v>
       </c>
       <c r="AB10" t="n">
-        <v>552.0257566547142</v>
+        <v>607.0177852334855</v>
       </c>
       <c r="AC10" t="n">
-        <v>499.341193212603</v>
+        <v>549.0848597656133</v>
       </c>
       <c r="AD10" t="n">
-        <v>403455.6040415639</v>
+        <v>443647.2832164123</v>
       </c>
       <c r="AE10" t="n">
-        <v>552025.7566547142</v>
+        <v>607017.7852334855</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.829210989004625e-06</v>
+        <v>4.899602149030562e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.408333333333335</v>
       </c>
       <c r="AH10" t="n">
-        <v>499341.193212603</v>
+        <v>549084.8597656132</v>
       </c>
     </row>
   </sheetData>
@@ -6285,28 +6285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>509.3641053862688</v>
+        <v>554.9409334498456</v>
       </c>
       <c r="AB2" t="n">
-        <v>696.9344405478606</v>
+        <v>759.2946674121916</v>
       </c>
       <c r="AC2" t="n">
-        <v>630.4199956956027</v>
+        <v>686.8286500311303</v>
       </c>
       <c r="AD2" t="n">
-        <v>509364.1053862688</v>
+        <v>554940.9334498456</v>
       </c>
       <c r="AE2" t="n">
-        <v>696934.4405478606</v>
+        <v>759294.6674121916</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.367193184480276e-06</v>
+        <v>4.479238900674162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.880555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>630419.9956956026</v>
+        <v>686828.6500311303</v>
       </c>
     </row>
     <row r="3">
@@ -6391,28 +6391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>329.088995587354</v>
+        <v>365.5504580382154</v>
       </c>
       <c r="AB3" t="n">
-        <v>450.2740821444481</v>
+        <v>500.1622636359131</v>
       </c>
       <c r="AC3" t="n">
-        <v>407.3005557082246</v>
+        <v>452.4274791766467</v>
       </c>
       <c r="AD3" t="n">
-        <v>329088.995587354</v>
+        <v>365550.4580382154</v>
       </c>
       <c r="AE3" t="n">
-        <v>450274.0821444481</v>
+        <v>500162.2636359131</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.954402591486233e-06</v>
+        <v>5.590365460157039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>407300.5557082246</v>
+        <v>452427.4791766467</v>
       </c>
     </row>
     <row r="4">
@@ -6497,28 +6497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.7144308435542</v>
+        <v>351.1758932944156</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.6061685009416</v>
+        <v>480.4943499924067</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.5097201387642</v>
+        <v>434.6366436071863</v>
       </c>
       <c r="AD4" t="n">
-        <v>314714.4308435542</v>
+        <v>351175.8932944156</v>
       </c>
       <c r="AE4" t="n">
-        <v>430606.1685009416</v>
+        <v>480494.3499924067</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.017215642479414e-06</v>
+        <v>5.709221269358964e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.751388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>389509.7201387642</v>
+        <v>434636.6436071863</v>
       </c>
     </row>
   </sheetData>
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>763.4028984438565</v>
+        <v>820.2120909170991</v>
       </c>
       <c r="AB2" t="n">
-        <v>1044.521524609823</v>
+        <v>1122.250367996403</v>
       </c>
       <c r="AC2" t="n">
-        <v>944.8338562962277</v>
+        <v>1015.14436796311</v>
       </c>
       <c r="AD2" t="n">
-        <v>763402.8984438565</v>
+        <v>820212.090917099</v>
       </c>
       <c r="AE2" t="n">
-        <v>1044521.524609823</v>
+        <v>1122250.367996403</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.9577182373667e-06</v>
+        <v>3.56653746145448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.42916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>944833.8562962278</v>
+        <v>1015144.36796311</v>
       </c>
     </row>
     <row r="3">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.5167471660627</v>
+        <v>489.5886111365242</v>
       </c>
       <c r="AB3" t="n">
-        <v>617.7851329856442</v>
+        <v>669.8767368821269</v>
       </c>
       <c r="AC3" t="n">
-        <v>558.8245869603735</v>
+        <v>605.9446412920011</v>
       </c>
       <c r="AD3" t="n">
-        <v>451516.7471660626</v>
+        <v>489588.6111365241</v>
       </c>
       <c r="AE3" t="n">
-        <v>617785.1329856442</v>
+        <v>669876.7368821269</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.630965810931169e-06</v>
+        <v>4.79304832809522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.504166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>558824.5869603734</v>
+        <v>605944.641292001</v>
       </c>
     </row>
     <row r="4">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>369.4433251130074</v>
+        <v>407.4298482288972</v>
       </c>
       <c r="AB4" t="n">
-        <v>505.4886561088179</v>
+        <v>557.463492883103</v>
       </c>
       <c r="AC4" t="n">
-        <v>457.2455282275763</v>
+        <v>504.259959527265</v>
       </c>
       <c r="AD4" t="n">
-        <v>369443.3251130074</v>
+        <v>407429.8482288973</v>
       </c>
       <c r="AE4" t="n">
-        <v>505488.6561088179</v>
+        <v>557463.492883103</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.884863436185442e-06</v>
+        <v>5.255594661147578e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.755555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>457245.5282275763</v>
+        <v>504259.959527265</v>
       </c>
     </row>
     <row r="5">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>344.994758906752</v>
+        <v>382.9812820226418</v>
       </c>
       <c r="AB5" t="n">
-        <v>472.0370492308017</v>
+        <v>524.0118860050867</v>
       </c>
       <c r="AC5" t="n">
-        <v>426.9864957603727</v>
+        <v>474.0009270600615</v>
       </c>
       <c r="AD5" t="n">
-        <v>344994.758906752</v>
+        <v>382981.2820226419</v>
       </c>
       <c r="AE5" t="n">
-        <v>472037.0492308017</v>
+        <v>524011.8860050867</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.956554072757873e-06</v>
+        <v>5.386199431584316e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.568055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>426986.4957603727</v>
+        <v>474000.9270600615</v>
       </c>
     </row>
     <row r="6">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>345.1577621663876</v>
+        <v>383.1442852822775</v>
       </c>
       <c r="AB6" t="n">
-        <v>472.2600774818314</v>
+        <v>524.2349142561163</v>
       </c>
       <c r="AC6" t="n">
-        <v>427.1882385081463</v>
+        <v>474.2026698078351</v>
       </c>
       <c r="AD6" t="n">
-        <v>345157.7621663876</v>
+        <v>383144.2852822774</v>
       </c>
       <c r="AE6" t="n">
-        <v>472260.0774818314</v>
+        <v>524234.9142561164</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.961870457043019e-06</v>
+        <v>5.395884729167266e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.554166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>427188.2385081463</v>
+        <v>474202.6698078351</v>
       </c>
     </row>
   </sheetData>
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.5516028527451</v>
+        <v>407.4795118335101</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.4273417878856</v>
+        <v>557.5314448179378</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.953574431308</v>
+        <v>504.3214262248104</v>
       </c>
       <c r="AD2" t="n">
-        <v>363551.6028527451</v>
+        <v>407479.5118335101</v>
       </c>
       <c r="AE2" t="n">
-        <v>497427.3417878856</v>
+        <v>557531.4448179378</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.728570510431592e-06</v>
+        <v>5.347119053751391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.902777777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>449953.574431308</v>
+        <v>504321.4262248104</v>
       </c>
     </row>
     <row r="3">
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.7017259230885</v>
+        <v>336.8270744453373</v>
       </c>
       <c r="AB3" t="n">
-        <v>412.8016115487359</v>
+        <v>460.8616630178866</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.4044051132244</v>
+        <v>416.8776727228653</v>
       </c>
       <c r="AD3" t="n">
-        <v>301701.7259230886</v>
+        <v>336827.0744453373</v>
       </c>
       <c r="AE3" t="n">
-        <v>412801.6115487359</v>
+        <v>460861.6630178866</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.022747524632344e-06</v>
+        <v>5.923611217613312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.036111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>373404.4051132244</v>
+        <v>416877.6727228653</v>
       </c>
     </row>
   </sheetData>
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1740.119975345996</v>
+        <v>1821.440375920104</v>
       </c>
       <c r="AB2" t="n">
-        <v>2380.908918943642</v>
+        <v>2492.175078612011</v>
       </c>
       <c r="AC2" t="n">
-        <v>2153.678313346316</v>
+        <v>2254.325386898971</v>
       </c>
       <c r="AD2" t="n">
-        <v>1740119.975345996</v>
+        <v>1821440.375920104</v>
       </c>
       <c r="AE2" t="n">
-        <v>2380908.918943642</v>
+        <v>2492175.07861201</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.264826695874906e-06</v>
+        <v>2.176110560730607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.42222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2153678.313346316</v>
+        <v>2254325.386898971</v>
       </c>
     </row>
     <row r="3">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>728.6645510150014</v>
+        <v>779.5430834650818</v>
       </c>
       <c r="AB3" t="n">
-        <v>996.9909851099366</v>
+        <v>1066.605237810572</v>
       </c>
       <c r="AC3" t="n">
-        <v>901.8395647766795</v>
+        <v>964.8099309037838</v>
       </c>
       <c r="AD3" t="n">
-        <v>728664.5510150014</v>
+        <v>779543.0834650819</v>
       </c>
       <c r="AE3" t="n">
-        <v>996990.9851099366</v>
+        <v>1066605.237810572</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.101613424433507e-06</v>
+        <v>3.615786401724784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.884722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>901839.5647766795</v>
+        <v>964809.9309037838</v>
       </c>
     </row>
     <row r="4">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>580.8794371816263</v>
+        <v>631.6726287771349</v>
       </c>
       <c r="AB4" t="n">
-        <v>794.7848725440361</v>
+        <v>864.2823581224741</v>
       </c>
       <c r="AC4" t="n">
-        <v>718.9317197960071</v>
+        <v>781.7964628911726</v>
       </c>
       <c r="AD4" t="n">
-        <v>580879.4371816262</v>
+        <v>631672.6287771349</v>
       </c>
       <c r="AE4" t="n">
-        <v>794784.8725440361</v>
+        <v>864282.358122474</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.404920571085312e-06</v>
+        <v>4.137620647575755e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.637499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>718931.719796007</v>
+        <v>781796.4628911726</v>
       </c>
     </row>
     <row r="5">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>521.5569082383849</v>
+        <v>562.1744828524287</v>
       </c>
       <c r="AB5" t="n">
-        <v>713.6171713186238</v>
+        <v>769.1919288264831</v>
       </c>
       <c r="AC5" t="n">
-        <v>645.510550055964</v>
+        <v>695.7813307069353</v>
       </c>
       <c r="AD5" t="n">
-        <v>521556.9082383849</v>
+        <v>562174.4828524287</v>
       </c>
       <c r="AE5" t="n">
-        <v>713617.1713186238</v>
+        <v>769191.9288264832</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.56360345205058e-06</v>
+        <v>4.410631562195026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.10277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>645510.550055964</v>
+        <v>695781.3307069353</v>
       </c>
     </row>
     <row r="6">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>497.2369729304652</v>
+        <v>547.9448236714024</v>
       </c>
       <c r="AB6" t="n">
-        <v>680.3415629105054</v>
+        <v>749.7222813667455</v>
       </c>
       <c r="AC6" t="n">
-        <v>615.4107190117066</v>
+        <v>678.1698390749333</v>
       </c>
       <c r="AD6" t="n">
-        <v>497236.9729304652</v>
+        <v>547944.8236714024</v>
       </c>
       <c r="AE6" t="n">
-        <v>680341.5629105055</v>
+        <v>749722.2813667455</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.597403952614341e-06</v>
+        <v>4.468784688211949e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.997222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>615410.7190117066</v>
+        <v>678169.8390749333</v>
       </c>
     </row>
     <row r="7">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>452.246112319459</v>
+        <v>492.9489382795234</v>
       </c>
       <c r="AB7" t="n">
-        <v>618.7830825658406</v>
+        <v>674.4744847263493</v>
       </c>
       <c r="AC7" t="n">
-        <v>559.727293633267</v>
+        <v>610.1035865349504</v>
       </c>
       <c r="AD7" t="n">
-        <v>452246.112319459</v>
+        <v>492948.9382795234</v>
       </c>
       <c r="AE7" t="n">
-        <v>618783.0825658406</v>
+        <v>674474.4847263492</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.720491616171755e-06</v>
+        <v>4.680554700211629e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.634722222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>559727.2936332669</v>
+        <v>610103.5865349504</v>
       </c>
     </row>
     <row r="8">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>429.1343282269189</v>
+        <v>469.6665619863909</v>
       </c>
       <c r="AB8" t="n">
-        <v>587.1605199504743</v>
+        <v>642.6185103361357</v>
       </c>
       <c r="AC8" t="n">
-        <v>531.1227440113659</v>
+        <v>581.2879016303981</v>
       </c>
       <c r="AD8" t="n">
-        <v>429134.3282269189</v>
+        <v>469666.561986391</v>
       </c>
       <c r="AE8" t="n">
-        <v>587160.5199504743</v>
+        <v>642618.5103361357</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.772388844913459e-06</v>
+        <v>4.769842906972125e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.493055555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>531122.7440113658</v>
+        <v>581287.9016303981</v>
       </c>
     </row>
     <row r="9">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>411.1783110723355</v>
+        <v>451.7105448318077</v>
       </c>
       <c r="AB9" t="n">
-        <v>562.5923051160046</v>
+        <v>618.0502955016661</v>
       </c>
       <c r="AC9" t="n">
-        <v>508.8992851189917</v>
+        <v>559.064442738024</v>
       </c>
       <c r="AD9" t="n">
-        <v>411178.3110723355</v>
+        <v>451710.5448318077</v>
       </c>
       <c r="AE9" t="n">
-        <v>562592.3051160045</v>
+        <v>618050.2955016661</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.808582301269345e-06</v>
+        <v>4.832113068459273e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>508899.2851189917</v>
+        <v>559064.4427380241</v>
       </c>
     </row>
     <row r="10">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>409.7429313311637</v>
+        <v>450.2751650906358</v>
       </c>
       <c r="AB10" t="n">
-        <v>560.6283552296482</v>
+        <v>616.0863456153097</v>
       </c>
       <c r="AC10" t="n">
-        <v>507.1227718533682</v>
+        <v>557.2879294724007</v>
       </c>
       <c r="AD10" t="n">
-        <v>409742.9313311637</v>
+        <v>450275.1650906358</v>
       </c>
       <c r="AE10" t="n">
-        <v>560628.3552296482</v>
+        <v>616086.3456153097</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.812769973905563e-06</v>
+        <v>4.839317880532166e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.384722222222223</v>
       </c>
       <c r="AH10" t="n">
-        <v>507122.7718533682</v>
+        <v>557287.9294724007</v>
       </c>
     </row>
     <row r="11">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>411.3449483126018</v>
+        <v>451.877182072074</v>
       </c>
       <c r="AB11" t="n">
-        <v>562.8203055396532</v>
+        <v>618.2782959253146</v>
       </c>
       <c r="AC11" t="n">
-        <v>509.1055255022079</v>
+        <v>559.2706831212404</v>
       </c>
       <c r="AD11" t="n">
-        <v>411344.9483126018</v>
+        <v>451877.182072074</v>
       </c>
       <c r="AE11" t="n">
-        <v>562820.3055396532</v>
+        <v>618278.2959253147</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.813218653116586e-06</v>
+        <v>4.840089824682833e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.383333333333332</v>
       </c>
       <c r="AH11" t="n">
-        <v>509105.5255022079</v>
+        <v>559270.6831212403</v>
       </c>
     </row>
   </sheetData>
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.7634635290038</v>
+        <v>333.1481141146683</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.781351314161</v>
+        <v>455.8279471891905</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.7678328729666</v>
+        <v>412.3243676679954</v>
       </c>
       <c r="AD2" t="n">
-        <v>298763.4635290038</v>
+        <v>333148.1141146683</v>
       </c>
       <c r="AE2" t="n">
-        <v>408781.351314161</v>
+        <v>455827.9471891905</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.944329015248801e-06</v>
+        <v>5.90237971256102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.443055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>369767.8328729666</v>
+        <v>412324.3676679954</v>
       </c>
     </row>
     <row r="3">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.9459376107845</v>
+        <v>325.330588196449</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.0850674679506</v>
+        <v>445.1316633429801</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.0923873447098</v>
+        <v>402.6489221397386</v>
       </c>
       <c r="AD3" t="n">
-        <v>290945.9376107845</v>
+        <v>325330.588196449</v>
       </c>
       <c r="AE3" t="n">
-        <v>398085.0674679506</v>
+        <v>445131.6633429801</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.000351810493352e-06</v>
+        <v>6.014686390374491e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.284722222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>360092.3873447098</v>
+        <v>402648.9221397386</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1090.719862041007</v>
+        <v>1159.249032050619</v>
       </c>
       <c r="AB2" t="n">
-        <v>1492.371034408739</v>
+        <v>1586.135668109499</v>
       </c>
       <c r="AC2" t="n">
-        <v>1349.941237440671</v>
+        <v>1434.757106100519</v>
       </c>
       <c r="AD2" t="n">
-        <v>1090719.862041007</v>
+        <v>1159249.032050619</v>
       </c>
       <c r="AE2" t="n">
-        <v>1492371.034408739</v>
+        <v>1586135.668109498</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.62937578752641e-06</v>
+        <v>2.885745593572769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.25416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1349941.237440671</v>
+        <v>1434757.106100519</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>570.0144316332622</v>
+        <v>609.271528119073</v>
       </c>
       <c r="AB3" t="n">
-        <v>779.918892622549</v>
+        <v>833.6321839353009</v>
       </c>
       <c r="AC3" t="n">
-        <v>705.4845281336929</v>
+        <v>754.0714983106337</v>
       </c>
       <c r="AD3" t="n">
-        <v>570014.4316332622</v>
+        <v>609271.528119073</v>
       </c>
       <c r="AE3" t="n">
-        <v>779918.8926225491</v>
+        <v>833632.1839353009</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.382101065455158e-06</v>
+        <v>4.21887799346644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.065277777777776</v>
       </c>
       <c r="AH3" t="n">
-        <v>705484.5281336929</v>
+        <v>754071.4983106337</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>467.8239022264322</v>
+        <v>506.9956578576713</v>
       </c>
       <c r="AB4" t="n">
-        <v>640.0973019601487</v>
+        <v>693.693826150703</v>
       </c>
       <c r="AC4" t="n">
-        <v>579.0073138432771</v>
+        <v>627.4886609882789</v>
       </c>
       <c r="AD4" t="n">
-        <v>467823.9022264322</v>
+        <v>506995.6578576713</v>
       </c>
       <c r="AE4" t="n">
-        <v>640097.3019601487</v>
+        <v>693693.826150703</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.651098117885799e-06</v>
+        <v>4.695291761658146e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.145833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>579007.3138432771</v>
+        <v>627488.6609882789</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>413.9034990178886</v>
+        <v>453.1605059951484</v>
       </c>
       <c r="AB5" t="n">
-        <v>566.3210274899171</v>
+        <v>620.0341963331206</v>
       </c>
       <c r="AC5" t="n">
-        <v>512.2721434628328</v>
+        <v>560.859002858547</v>
       </c>
       <c r="AD5" t="n">
-        <v>413903.4990178886</v>
+        <v>453160.5059951483</v>
       </c>
       <c r="AE5" t="n">
-        <v>566321.0274899171</v>
+        <v>620034.1963331206</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.786685071480897e-06</v>
+        <v>4.935426331521248e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>512272.1434628328</v>
+        <v>560859.002858547</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>383.2023029010693</v>
+        <v>422.4593098783291</v>
       </c>
       <c r="AB6" t="n">
-        <v>524.314296521704</v>
+        <v>578.0274653649075</v>
       </c>
       <c r="AC6" t="n">
-        <v>474.2744759414087</v>
+        <v>522.8613353371229</v>
       </c>
       <c r="AD6" t="n">
-        <v>383202.3029010693</v>
+        <v>422459.309878329</v>
       </c>
       <c r="AE6" t="n">
-        <v>524314.2965217041</v>
+        <v>578027.4653649075</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.869250062718279e-06</v>
+        <v>5.081655066151188e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.526388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>474274.4759414087</v>
+        <v>522861.3353371229</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>373.005462437396</v>
+        <v>412.0918772140636</v>
       </c>
       <c r="AB7" t="n">
-        <v>510.3625295464541</v>
+        <v>563.8422866148107</v>
       </c>
       <c r="AC7" t="n">
-        <v>461.6542460248488</v>
+        <v>510.0299701379118</v>
       </c>
       <c r="AD7" t="n">
-        <v>373005.4624373961</v>
+        <v>412091.8772140636</v>
       </c>
       <c r="AE7" t="n">
-        <v>510362.5295464541</v>
+        <v>563842.2866148107</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.895372319832931e-06</v>
+        <v>5.127919524565182e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.458333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>461654.2460248488</v>
+        <v>510029.9701379118</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>374.8074817014224</v>
+        <v>413.89389647809</v>
       </c>
       <c r="AB8" t="n">
-        <v>512.8281318029741</v>
+        <v>566.3078888713306</v>
       </c>
       <c r="AC8" t="n">
-        <v>463.884534662501</v>
+        <v>512.260258775564</v>
       </c>
       <c r="AD8" t="n">
-        <v>374807.4817014224</v>
+        <v>413893.89647809</v>
       </c>
       <c r="AE8" t="n">
-        <v>512828.1318029741</v>
+        <v>566307.8888713307</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.895216830207248e-06</v>
+        <v>5.127644140884145e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.459722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>463884.534662501</v>
+        <v>512260.258775564</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1373.089488248803</v>
+        <v>1453.021680944836</v>
       </c>
       <c r="AB2" t="n">
-        <v>1878.721614254964</v>
+        <v>1988.08836666114</v>
       </c>
       <c r="AC2" t="n">
-        <v>1699.419060192816</v>
+        <v>1798.348003246548</v>
       </c>
       <c r="AD2" t="n">
-        <v>1373089.488248803</v>
+        <v>1453021.680944836</v>
       </c>
       <c r="AE2" t="n">
-        <v>1878721.614254964</v>
+        <v>1988088.36666114</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.437411447709277e-06</v>
+        <v>2.50672005118103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1699419.060192815</v>
+        <v>1798348.003246548</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>646.940101848207</v>
+        <v>696.7804681167431</v>
       </c>
       <c r="AB3" t="n">
-        <v>885.1719883316897</v>
+        <v>953.3657762620767</v>
       </c>
       <c r="AC3" t="n">
-        <v>800.6924161120008</v>
+        <v>862.3778846328942</v>
       </c>
       <c r="AD3" t="n">
-        <v>646940.1018482069</v>
+        <v>696780.4681167431</v>
       </c>
       <c r="AE3" t="n">
-        <v>885171.9883316897</v>
+        <v>953365.7762620767</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235719448344848e-06</v>
+        <v>3.898899496670017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.463888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>800692.4161120008</v>
+        <v>862377.8846328942</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>524.3009234687191</v>
+        <v>564.2244388980012</v>
       </c>
       <c r="AB4" t="n">
-        <v>717.3716540141752</v>
+        <v>771.9967691257132</v>
       </c>
       <c r="AC4" t="n">
-        <v>648.9067101925016</v>
+        <v>698.3184809846248</v>
       </c>
       <c r="AD4" t="n">
-        <v>524300.9234687191</v>
+        <v>564224.4388980011</v>
       </c>
       <c r="AE4" t="n">
-        <v>717371.6540141752</v>
+        <v>771996.7691257132</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.521525900480789e-06</v>
+        <v>4.397320992803097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.391666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>648906.7101925015</v>
+        <v>698318.4809846248</v>
       </c>
     </row>
     <row r="5">
@@ -10823,28 +10823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.9627754213425</v>
+        <v>499.971542196645</v>
       </c>
       <c r="AB5" t="n">
-        <v>629.341361456987</v>
+        <v>684.0831212211741</v>
       </c>
       <c r="AC5" t="n">
-        <v>569.2779052056799</v>
+        <v>618.7951882485154</v>
       </c>
       <c r="AD5" t="n">
-        <v>459962.7754213425</v>
+        <v>499971.5421966451</v>
       </c>
       <c r="AE5" t="n">
-        <v>629341.361456987</v>
+        <v>684083.1212211741</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.681339849462986e-06</v>
+        <v>4.676022565001179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.891666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>569277.9052056798</v>
+        <v>618795.1882485154</v>
       </c>
     </row>
     <row r="6">
@@ -10929,28 +10929,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>432.8420723956366</v>
+        <v>472.8508391709393</v>
       </c>
       <c r="AB6" t="n">
-        <v>592.2336190962421</v>
+        <v>646.9753788604294</v>
       </c>
       <c r="AC6" t="n">
-        <v>535.7116736948009</v>
+        <v>585.2289567376366</v>
       </c>
       <c r="AD6" t="n">
-        <v>432842.0723956366</v>
+        <v>472850.8391709393</v>
       </c>
       <c r="AE6" t="n">
-        <v>592233.6190962421</v>
+        <v>646975.3788604294</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.752639113641888e-06</v>
+        <v>4.800362255934165e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>535711.6736948009</v>
+        <v>585228.9567376366</v>
       </c>
     </row>
     <row r="7">
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>405.2716334945605</v>
+        <v>445.2804002698631</v>
       </c>
       <c r="AB7" t="n">
-        <v>554.5105282698692</v>
+        <v>609.2522880340563</v>
       </c>
       <c r="AC7" t="n">
-        <v>501.5888217122064</v>
+        <v>551.106104755042</v>
       </c>
       <c r="AD7" t="n">
-        <v>405271.6334945605</v>
+        <v>445280.4002698631</v>
       </c>
       <c r="AE7" t="n">
-        <v>554510.5282698692</v>
+        <v>609252.2880340563</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.820586703008961e-06</v>
+        <v>4.918856918660899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.501388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>501588.8217122064</v>
+        <v>551106.104755042</v>
       </c>
     </row>
     <row r="8">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>391.104685733393</v>
+        <v>430.9428603081033</v>
       </c>
       <c r="AB8" t="n">
-        <v>535.1266853414148</v>
+        <v>589.6350333307552</v>
       </c>
       <c r="AC8" t="n">
-        <v>484.0549455474494</v>
+        <v>533.361093307634</v>
       </c>
       <c r="AD8" t="n">
-        <v>391104.685733393</v>
+        <v>430942.8603081033</v>
       </c>
       <c r="AE8" t="n">
-        <v>535126.6853414149</v>
+        <v>589635.0333307552</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.852884660286584e-06</v>
+        <v>4.975181735921141e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>484054.9455474495</v>
+        <v>533361.093307634</v>
       </c>
     </row>
     <row r="9">
@@ -11247,28 +11247,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>392.7513232702972</v>
+        <v>432.5894978450077</v>
       </c>
       <c r="AB9" t="n">
-        <v>537.3796874639285</v>
+        <v>591.8880354532688</v>
       </c>
       <c r="AC9" t="n">
-        <v>486.0929243094987</v>
+        <v>535.3990720696833</v>
       </c>
       <c r="AD9" t="n">
-        <v>392751.3232702972</v>
+        <v>432589.4978450076</v>
       </c>
       <c r="AE9" t="n">
-        <v>537379.6874639285</v>
+        <v>591888.0354532688</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.852579962576418e-06</v>
+        <v>4.974650369720573e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.418055555555554</v>
       </c>
       <c r="AH9" t="n">
-        <v>486092.9243094987</v>
+        <v>535399.0720696832</v>
       </c>
     </row>
   </sheetData>
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2231.548419406812</v>
+        <v>2334.837331790734</v>
       </c>
       <c r="AB2" t="n">
-        <v>3053.30299640066</v>
+        <v>3194.627443109563</v>
       </c>
       <c r="AC2" t="n">
-        <v>2761.900043761735</v>
+        <v>2889.736683626842</v>
       </c>
       <c r="AD2" t="n">
-        <v>2231548.419406812</v>
+        <v>2334837.331790735</v>
       </c>
       <c r="AE2" t="n">
-        <v>3053302.996400659</v>
+        <v>3194627.443109563</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.102879746388974e-06</v>
+        <v>1.874822473985454e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.51805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2761900.043761735</v>
+        <v>2889736.683626842</v>
       </c>
     </row>
     <row r="3">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>827.337759044951</v>
+        <v>878.9396343181772</v>
       </c>
       <c r="AB3" t="n">
-        <v>1132.000021491222</v>
+        <v>1202.603983754118</v>
       </c>
       <c r="AC3" t="n">
-        <v>1023.963528212107</v>
+        <v>1087.829147409917</v>
       </c>
       <c r="AD3" t="n">
-        <v>827337.7590449509</v>
+        <v>878939.6343181772</v>
       </c>
       <c r="AE3" t="n">
-        <v>1132000.021491222</v>
+        <v>1202603.983754118</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977095758693302e-06</v>
+        <v>3.360931755031256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.33055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1023963.528212107</v>
+        <v>1087829.147409917</v>
       </c>
     </row>
     <row r="4">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>641.2198695088935</v>
+        <v>692.8216552735686</v>
       </c>
       <c r="AB4" t="n">
-        <v>877.3453140862005</v>
+        <v>947.9491538795492</v>
       </c>
       <c r="AC4" t="n">
-        <v>793.6127086716948</v>
+        <v>857.4782170882777</v>
       </c>
       <c r="AD4" t="n">
-        <v>641219.8695088935</v>
+        <v>692821.6552735686</v>
       </c>
       <c r="AE4" t="n">
-        <v>877345.3140862004</v>
+        <v>947949.1538795491</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.292372315527696e-06</v>
+        <v>3.896881006261232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.909722222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>793612.7086716949</v>
+        <v>857478.2170882777</v>
       </c>
     </row>
     <row r="5">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>570.5031010063142</v>
+        <v>611.767550955691</v>
       </c>
       <c r="AB5" t="n">
-        <v>780.5875116173301</v>
+        <v>837.0473524971177</v>
       </c>
       <c r="AC5" t="n">
-        <v>706.0893350700246</v>
+        <v>757.1607279781297</v>
       </c>
       <c r="AD5" t="n">
-        <v>570503.1010063142</v>
+        <v>611767.550955691</v>
       </c>
       <c r="AE5" t="n">
-        <v>780587.51161733</v>
+        <v>837047.3524971177</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.464568606597228e-06</v>
+        <v>4.189603288532827e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.287500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>706089.3350700246</v>
+        <v>757160.7279781296</v>
       </c>
     </row>
     <row r="6">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>509.1176283818954</v>
+        <v>550.4673296772928</v>
       </c>
       <c r="AB6" t="n">
-        <v>696.5971998366787</v>
+        <v>753.1736853691158</v>
       </c>
       <c r="AC6" t="n">
-        <v>630.1149407645757</v>
+        <v>681.291845923393</v>
       </c>
       <c r="AD6" t="n">
-        <v>509117.6283818954</v>
+        <v>550467.3296772928</v>
       </c>
       <c r="AE6" t="n">
-        <v>696597.1998366787</v>
+        <v>753173.6853691158</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.59970813818809e-06</v>
+        <v>4.419331535678511e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.855555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>630114.9407645757</v>
+        <v>681291.845923393</v>
       </c>
     </row>
     <row r="7">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>497.4460280677166</v>
+        <v>538.7957293631141</v>
       </c>
       <c r="AB7" t="n">
-        <v>680.6276013721545</v>
+        <v>737.2040869045915</v>
       </c>
       <c r="AC7" t="n">
-        <v>615.6694583640335</v>
+        <v>666.8463635228507</v>
       </c>
       <c r="AD7" t="n">
-        <v>497446.0280677166</v>
+        <v>538795.7293631141</v>
       </c>
       <c r="AE7" t="n">
-        <v>680627.6013721544</v>
+        <v>737204.0869045914</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.625441998937167e-06</v>
+        <v>4.463077393404839e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.779166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>615669.4583640335</v>
+        <v>666846.3635228507</v>
       </c>
     </row>
     <row r="8">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>473.4743173688602</v>
+        <v>514.8240186642576</v>
       </c>
       <c r="AB8" t="n">
-        <v>647.8284492367417</v>
+        <v>704.4049347691787</v>
       </c>
       <c r="AC8" t="n">
-        <v>586.0006112745253</v>
+        <v>637.1775164333426</v>
       </c>
       <c r="AD8" t="n">
-        <v>473474.3173688602</v>
+        <v>514824.0186642576</v>
       </c>
       <c r="AE8" t="n">
-        <v>647828.4492367416</v>
+        <v>704404.9347691786</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.681909441952282e-06</v>
+        <v>4.559068304072893e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.615277777777777</v>
       </c>
       <c r="AH8" t="n">
-        <v>586000.6112745253</v>
+        <v>637177.5164333426</v>
       </c>
     </row>
     <row r="9">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>453.7245178972319</v>
+        <v>494.9036269920371</v>
       </c>
       <c r="AB9" t="n">
-        <v>620.8059023000004</v>
+        <v>677.1489760575903</v>
       </c>
       <c r="AC9" t="n">
-        <v>561.5570582910439</v>
+        <v>612.5228281672102</v>
       </c>
       <c r="AD9" t="n">
-        <v>453724.5178972319</v>
+        <v>494903.6269920371</v>
       </c>
       <c r="AE9" t="n">
-        <v>620805.9023000004</v>
+        <v>677148.9760575903</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.724848226745026e-06</v>
+        <v>4.632061392393394e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.495833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>561557.0582910439</v>
+        <v>612522.8281672101</v>
       </c>
     </row>
     <row r="10">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>443.982686250156</v>
+        <v>485.1617953449612</v>
       </c>
       <c r="AB10" t="n">
-        <v>607.4766984611912</v>
+        <v>663.8197722187811</v>
       </c>
       <c r="AC10" t="n">
-        <v>549.4999749589555</v>
+        <v>600.4657448351217</v>
       </c>
       <c r="AD10" t="n">
-        <v>443982.686250156</v>
+        <v>485161.7953449612</v>
       </c>
       <c r="AE10" t="n">
-        <v>607476.6984611911</v>
+        <v>663819.7722187811</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.733377163450434e-06</v>
+        <v>4.646560019525548e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.472222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>549499.9749589554</v>
+        <v>600465.7448351217</v>
       </c>
     </row>
     <row r="11">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>429.1650595397095</v>
+        <v>470.3441686345147</v>
       </c>
       <c r="AB11" t="n">
-        <v>587.2025678884042</v>
+        <v>643.5456416459942</v>
       </c>
       <c r="AC11" t="n">
-        <v>531.1607789531143</v>
+        <v>582.1265488292805</v>
       </c>
       <c r="AD11" t="n">
-        <v>429165.0595397095</v>
+        <v>470344.1686345147</v>
       </c>
       <c r="AE11" t="n">
-        <v>587202.5678884042</v>
+        <v>643545.6416459943</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.768669315334881e-06</v>
+        <v>4.706554338693083e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.376388888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>531160.7789531143</v>
+        <v>582126.5488292805</v>
       </c>
     </row>
     <row r="12">
@@ -12604,28 +12604,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>430.2563046846575</v>
+        <v>471.4354137794627</v>
       </c>
       <c r="AB12" t="n">
-        <v>588.6956576380602</v>
+        <v>645.0387313956502</v>
       </c>
       <c r="AC12" t="n">
-        <v>532.5113703126277</v>
+        <v>583.477140188794</v>
       </c>
       <c r="AD12" t="n">
-        <v>430256.3046846575</v>
+        <v>471435.4137794627</v>
       </c>
       <c r="AE12" t="n">
-        <v>588695.6576380602</v>
+        <v>645038.7313956502</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.76852226470203e-06</v>
+        <v>4.706304362363218e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.377777777777776</v>
       </c>
       <c r="AH12" t="n">
-        <v>532511.3703126278</v>
+        <v>583477.140188794</v>
       </c>
     </row>
   </sheetData>
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.0906156227513</v>
+        <v>923.6542424436545</v>
       </c>
       <c r="AB2" t="n">
-        <v>1185.023389516339</v>
+        <v>1263.784483260683</v>
       </c>
       <c r="AC2" t="n">
-        <v>1071.926420411671</v>
+        <v>1143.170665910945</v>
       </c>
       <c r="AD2" t="n">
-        <v>866090.6156227513</v>
+        <v>923654.2424436546</v>
       </c>
       <c r="AE2" t="n">
-        <v>1185023.389516338</v>
+        <v>1263784.483260683</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840787471281724e-06</v>
+        <v>3.319375414562247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.00416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1071926.420411672</v>
+        <v>1143170.665910945</v>
       </c>
     </row>
     <row r="3">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.3070732865387</v>
+        <v>533.262464237737</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.0185479076576</v>
+        <v>729.6332294496214</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.6455496512353</v>
+        <v>659.998058077618</v>
       </c>
       <c r="AD3" t="n">
-        <v>485307.0732865387</v>
+        <v>533262.464237737</v>
       </c>
       <c r="AE3" t="n">
-        <v>664018.5479076577</v>
+        <v>729633.2294496214</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.548721465508988e-06</v>
+        <v>4.595947931613669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.669444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>600645.5496512353</v>
+        <v>659998.058077618</v>
       </c>
     </row>
     <row r="4">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>400.740192574088</v>
+        <v>439.172778018704</v>
       </c>
       <c r="AB4" t="n">
-        <v>548.3104108894145</v>
+        <v>600.8955698207435</v>
       </c>
       <c r="AC4" t="n">
-        <v>495.980434832623</v>
+        <v>543.5469399992802</v>
       </c>
       <c r="AD4" t="n">
-        <v>400740.192574088</v>
+        <v>439172.778018704</v>
       </c>
       <c r="AE4" t="n">
-        <v>548310.4108894145</v>
+        <v>600895.5698207435</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.7972142517973e-06</v>
+        <v>5.044039228610145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.89861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>495980.434832623</v>
+        <v>543546.9399992801</v>
       </c>
     </row>
     <row r="5">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>363.6818770078778</v>
+        <v>402.1144624524938</v>
       </c>
       <c r="AB5" t="n">
-        <v>497.6055886342282</v>
+        <v>550.1907475655572</v>
       </c>
       <c r="AC5" t="n">
-        <v>450.1148096488066</v>
+        <v>497.6813148154638</v>
       </c>
       <c r="AD5" t="n">
-        <v>363681.8770078778</v>
+        <v>402114.4624524938</v>
       </c>
       <c r="AE5" t="n">
-        <v>497605.5886342282</v>
+        <v>550190.7475655572</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.90793831022026e-06</v>
+        <v>5.243700907681559e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.598611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>450114.8096488066</v>
+        <v>497681.3148154638</v>
       </c>
     </row>
     <row r="6">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>354.3996432195347</v>
+        <v>392.8322286641506</v>
       </c>
       <c r="AB6" t="n">
-        <v>484.9052268617637</v>
+        <v>537.4903857930926</v>
       </c>
       <c r="AC6" t="n">
-        <v>438.6265525788364</v>
+        <v>486.1930577454936</v>
       </c>
       <c r="AD6" t="n">
-        <v>354399.6432195347</v>
+        <v>392832.2286641506</v>
       </c>
       <c r="AE6" t="n">
-        <v>484905.2268617636</v>
+        <v>537490.3857930927</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.941187345005316e-06</v>
+        <v>5.303656785448693e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.512500000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>438626.5525788364</v>
+        <v>486193.0577454936</v>
       </c>
     </row>
   </sheetData>
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>591.2968453553098</v>
+        <v>637.4701965066703</v>
       </c>
       <c r="AB2" t="n">
-        <v>809.0384299908827</v>
+        <v>872.2148460606611</v>
       </c>
       <c r="AC2" t="n">
-        <v>731.8249377251202</v>
+        <v>788.971885313856</v>
       </c>
       <c r="AD2" t="n">
-        <v>591296.8453553098</v>
+        <v>637470.1965066703</v>
       </c>
       <c r="AE2" t="n">
-        <v>809038.4299908828</v>
+        <v>872214.8460606611</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.218594829401439e-06</v>
+        <v>4.139188793937546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.37361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>731824.9377251202</v>
+        <v>788971.8853138559</v>
       </c>
     </row>
     <row r="3">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>376.1842947011051</v>
+        <v>413.1059253529895</v>
       </c>
       <c r="AB3" t="n">
-        <v>514.7119480898426</v>
+        <v>565.2297520151354</v>
       </c>
       <c r="AC3" t="n">
-        <v>465.5885621669036</v>
+        <v>511.2850177877497</v>
       </c>
       <c r="AD3" t="n">
-        <v>376184.2947011051</v>
+        <v>413105.9253529895</v>
       </c>
       <c r="AE3" t="n">
-        <v>514711.9480898426</v>
+        <v>565229.7520151355</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.839529608738695e-06</v>
+        <v>5.297654614887949e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.105555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>465588.5621669036</v>
+        <v>511285.0177877496</v>
       </c>
     </row>
     <row r="4">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>324.8090195556457</v>
+        <v>361.8159015535508</v>
       </c>
       <c r="AB4" t="n">
-        <v>444.4180301186485</v>
+        <v>495.0524786965906</v>
       </c>
       <c r="AC4" t="n">
-        <v>402.0033970687467</v>
+        <v>447.805364940305</v>
       </c>
       <c r="AD4" t="n">
-        <v>324809.0195556457</v>
+        <v>361815.9015535507</v>
       </c>
       <c r="AE4" t="n">
-        <v>444418.0301186485</v>
+        <v>495052.4786965906</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.997124744887543e-06</v>
+        <v>5.591676764800901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.679166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>402003.3970687467</v>
+        <v>447805.364940305</v>
       </c>
     </row>
     <row r="5">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>325.4688147997566</v>
+        <v>362.4756967976617</v>
       </c>
       <c r="AB5" t="n">
-        <v>445.3207910797528</v>
+        <v>495.9552396576951</v>
       </c>
       <c r="AC5" t="n">
-        <v>402.8199997907562</v>
+        <v>448.6219676623145</v>
       </c>
       <c r="AD5" t="n">
-        <v>325468.8147997566</v>
+        <v>362475.6967976617</v>
       </c>
       <c r="AE5" t="n">
-        <v>445320.7910797528</v>
+        <v>495955.2396576951</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.004416212806101e-06</v>
+        <v>5.605280313272163e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.66111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>402819.9997907563</v>
+        <v>448621.9676623145</v>
       </c>
     </row>
   </sheetData>
@@ -25218,28 +25218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.7866851584969</v>
+        <v>484.4502061903681</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.7355446530797</v>
+        <v>662.8461445443691</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.3067488125303</v>
+        <v>599.5850388194605</v>
       </c>
       <c r="AD2" t="n">
-        <v>439786.685158497</v>
+        <v>484450.2061903682</v>
       </c>
       <c r="AE2" t="n">
-        <v>601735.5446530797</v>
+        <v>662846.1445443691</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.536057366773376e-06</v>
+        <v>4.876932362461839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.387500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>544306.7488125303</v>
+        <v>599585.0388194604</v>
       </c>
     </row>
     <row r="3">
@@ -25324,28 +25324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.972441807562</v>
+        <v>339.8397323935328</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.9085051987872</v>
+        <v>464.9837145316962</v>
       </c>
       <c r="AC3" t="n">
-        <v>376.2147811938674</v>
+        <v>420.6063214255324</v>
       </c>
       <c r="AD3" t="n">
-        <v>303972.441807562</v>
+        <v>339839.7323935328</v>
       </c>
       <c r="AE3" t="n">
-        <v>415908.5051987872</v>
+        <v>464983.7145316962</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.019475088437626e-06</v>
+        <v>5.806562568095365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.884722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>376214.7811938674</v>
+        <v>420606.3214255325</v>
       </c>
     </row>
     <row r="4">
@@ -25430,28 +25430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.1017019651715</v>
+        <v>340.9689925511423</v>
       </c>
       <c r="AB4" t="n">
-        <v>417.4536087658706</v>
+        <v>466.5288180987795</v>
       </c>
       <c r="AC4" t="n">
-        <v>377.6124222450748</v>
+        <v>422.0039624767399</v>
       </c>
       <c r="AD4" t="n">
-        <v>305101.7019651715</v>
+        <v>340968.9925511423</v>
       </c>
       <c r="AE4" t="n">
-        <v>417453.6087658706</v>
+        <v>466528.8180987795</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.023932131261481e-06</v>
+        <v>5.815133626728865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.873611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>377612.4222450748</v>
+        <v>422003.9624767399</v>
       </c>
     </row>
   </sheetData>
@@ -25727,28 +25727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.4620570081572</v>
+        <v>318.3870499040987</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.2675830437209</v>
+        <v>435.6312079240965</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.1662558199146</v>
+        <v>394.0551768520602</v>
       </c>
       <c r="AD2" t="n">
-        <v>276462.0570081572</v>
+        <v>318387.0499040987</v>
       </c>
       <c r="AE2" t="n">
-        <v>378267.5830437209</v>
+        <v>435631.2079240965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.930057029330197e-06</v>
+        <v>6.043533640250597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.720833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>342166.2558199146</v>
+        <v>394055.1768520602</v>
       </c>
     </row>
   </sheetData>
@@ -26024,28 +26024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1217.688689837915</v>
+        <v>1296.799815890271</v>
       </c>
       <c r="AB2" t="n">
-        <v>1666.09538606982</v>
+        <v>1774.338718871213</v>
       </c>
       <c r="AC2" t="n">
-        <v>1507.085580802876</v>
+        <v>1604.998321842176</v>
       </c>
       <c r="AD2" t="n">
-        <v>1217688.689837915</v>
+        <v>1296799.815890271</v>
       </c>
       <c r="AE2" t="n">
-        <v>1666095.38606982</v>
+        <v>1774338.718871213</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531619340998037e-06</v>
+        <v>2.690994763157288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.95277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1507085.580802876</v>
+        <v>1604998.321842176</v>
       </c>
     </row>
     <row r="3">
@@ -26130,28 +26130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>607.8493675929502</v>
+        <v>657.229905243295</v>
       </c>
       <c r="AB3" t="n">
-        <v>831.6863211621654</v>
+        <v>899.2509512909363</v>
       </c>
       <c r="AC3" t="n">
-        <v>752.3113459495306</v>
+        <v>813.4277026063654</v>
       </c>
       <c r="AD3" t="n">
-        <v>607849.3675929502</v>
+        <v>657229.905243295</v>
       </c>
       <c r="AE3" t="n">
-        <v>831686.3211621654</v>
+        <v>899250.9512909363</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.307430544264273e-06</v>
+        <v>4.05406444326971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.262499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>752311.3459495306</v>
+        <v>813427.7026063654</v>
       </c>
     </row>
     <row r="4">
@@ -26236,28 +26236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>495.2716829767888</v>
+        <v>534.8273355115178</v>
       </c>
       <c r="AB4" t="n">
-        <v>677.6525664934117</v>
+        <v>731.7743553636566</v>
       </c>
       <c r="AC4" t="n">
-        <v>612.9783566386303</v>
+        <v>661.9348379395068</v>
       </c>
       <c r="AD4" t="n">
-        <v>495271.6829767888</v>
+        <v>534827.3355115178</v>
       </c>
       <c r="AE4" t="n">
-        <v>677652.5664934117</v>
+        <v>731774.3553636565</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.586550243337051e-06</v>
+        <v>4.544466743889293e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.262499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>612978.3566386303</v>
+        <v>661934.8379395067</v>
       </c>
     </row>
     <row r="5">
@@ -26342,28 +26342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>428.6836939115899</v>
+        <v>468.3245977923394</v>
       </c>
       <c r="AB5" t="n">
-        <v>586.5439421996582</v>
+        <v>640.7823757225525</v>
       </c>
       <c r="AC5" t="n">
-        <v>530.5650115757154</v>
+        <v>579.6270051273041</v>
       </c>
       <c r="AD5" t="n">
-        <v>428683.6939115899</v>
+        <v>468324.5977923395</v>
       </c>
       <c r="AE5" t="n">
-        <v>586543.9421996583</v>
+        <v>640782.3757225525</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.763192698979582e-06</v>
+        <v>4.854820570301244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.733333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>530565.0115757154</v>
+        <v>579627.0051273041</v>
       </c>
     </row>
     <row r="6">
@@ -26448,28 +26448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>408.3767565456258</v>
+        <v>448.0176604263753</v>
       </c>
       <c r="AB6" t="n">
-        <v>558.7590946166976</v>
+        <v>612.9975281395917</v>
       </c>
       <c r="AC6" t="n">
-        <v>505.4319108497938</v>
+        <v>554.4939044013826</v>
       </c>
       <c r="AD6" t="n">
-        <v>408376.7565456257</v>
+        <v>448017.6604263753</v>
       </c>
       <c r="AE6" t="n">
-        <v>558759.0946166975</v>
+        <v>612997.5281395917</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.809815228648298e-06</v>
+        <v>4.936734515774084e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.605555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>505431.9108497938</v>
+        <v>554493.9044013825</v>
       </c>
     </row>
     <row r="7">
@@ -26554,28 +26554,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>384.0723800872937</v>
+        <v>423.542691767451</v>
       </c>
       <c r="AB7" t="n">
-        <v>525.5047745129926</v>
+        <v>579.5097962610399</v>
       </c>
       <c r="AC7" t="n">
-        <v>475.3513363840551</v>
+        <v>524.2021946529928</v>
       </c>
       <c r="AD7" t="n">
-        <v>384072.3800872936</v>
+        <v>423542.691767451</v>
       </c>
       <c r="AE7" t="n">
-        <v>525504.7745129926</v>
+        <v>579509.7962610399</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.867516379228393e-06</v>
+        <v>5.038113161161264e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.452777777777777</v>
       </c>
       <c r="AH7" t="n">
-        <v>475351.3363840551</v>
+        <v>524202.1946529929</v>
       </c>
     </row>
     <row r="8">
@@ -26660,28 +26660,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>382.5155921518111</v>
+        <v>421.9859038319684</v>
       </c>
       <c r="AB8" t="n">
-        <v>523.3747085790289</v>
+        <v>577.3797303270762</v>
       </c>
       <c r="AC8" t="n">
-        <v>473.4245609532626</v>
+        <v>522.2754192222003</v>
       </c>
       <c r="AD8" t="n">
-        <v>382515.5921518111</v>
+        <v>421985.9038319684</v>
       </c>
       <c r="AE8" t="n">
-        <v>523374.708579029</v>
+        <v>577379.7303270763</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.875671475177047e-06</v>
+        <v>5.052441343042652e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.431944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>473424.5609532626</v>
+        <v>522275.4192222003</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1966.719878147692</v>
+        <v>2058.87044689884</v>
       </c>
       <c r="AB2" t="n">
-        <v>2690.95290283909</v>
+        <v>2817.037376400583</v>
       </c>
       <c r="AC2" t="n">
-        <v>2434.132134568246</v>
+        <v>2548.1832829337</v>
       </c>
       <c r="AD2" t="n">
-        <v>1966719.878147692</v>
+        <v>2058870.44689884</v>
       </c>
       <c r="AE2" t="n">
-        <v>2690952.90283909</v>
+        <v>2817037.376400582</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18263161284319e-06</v>
+        <v>2.022168262661899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.4125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2434132.134568247</v>
+        <v>2548183.2829337</v>
       </c>
     </row>
     <row r="3">
@@ -27063,28 +27063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>778.9780591717202</v>
+        <v>830.1823416877776</v>
       </c>
       <c r="AB3" t="n">
-        <v>1065.832146645282</v>
+        <v>1135.892104957266</v>
       </c>
       <c r="AC3" t="n">
-        <v>964.110622474269</v>
+        <v>1027.484156694726</v>
       </c>
       <c r="AD3" t="n">
-        <v>778978.0591717203</v>
+        <v>830182.3416877775</v>
       </c>
       <c r="AE3" t="n">
-        <v>1065832.146645282</v>
+        <v>1135892.104957266</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.043064317122155e-06</v>
+        <v>3.493412298297179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.08055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>964110.622474269</v>
+        <v>1027484.156694726</v>
       </c>
     </row>
     <row r="4">
@@ -27169,28 +27169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>608.4495522973668</v>
+        <v>659.6537453048728</v>
       </c>
       <c r="AB4" t="n">
-        <v>832.5075203530286</v>
+        <v>902.567356195464</v>
       </c>
       <c r="AC4" t="n">
-        <v>753.054171042178</v>
+        <v>816.4275944814085</v>
       </c>
       <c r="AD4" t="n">
-        <v>608449.5522973668</v>
+        <v>659653.7453048729</v>
       </c>
       <c r="AE4" t="n">
-        <v>832507.5203530286</v>
+        <v>902567.3561954639</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.352363407441976e-06</v>
+        <v>4.022279273712517e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.754166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>753054.1710421781</v>
+        <v>816427.5944814085</v>
       </c>
     </row>
     <row r="5">
@@ -27275,28 +27275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>545.6181549398705</v>
+        <v>586.5645306835121</v>
       </c>
       <c r="AB5" t="n">
-        <v>746.5388305628833</v>
+        <v>802.5634682819406</v>
       </c>
       <c r="AC5" t="n">
-        <v>675.2902123477904</v>
+        <v>725.9679372740136</v>
       </c>
       <c r="AD5" t="n">
-        <v>545618.1549398705</v>
+        <v>586564.5306835121</v>
       </c>
       <c r="AE5" t="n">
-        <v>746538.8305628833</v>
+        <v>802563.4682819406</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.513685272383475e-06</v>
+        <v>4.298121684667399e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.193055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>675290.2123477905</v>
+        <v>725967.9372740136</v>
       </c>
     </row>
     <row r="6">
@@ -27381,28 +27381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>495.0239009189997</v>
+        <v>536.0555280086619</v>
       </c>
       <c r="AB6" t="n">
-        <v>677.3135401505717</v>
+        <v>733.4548225222781</v>
       </c>
       <c r="AC6" t="n">
-        <v>612.6716864941246</v>
+        <v>663.4549236710599</v>
       </c>
       <c r="AD6" t="n">
-        <v>495023.9009189997</v>
+        <v>536055.5280086619</v>
       </c>
       <c r="AE6" t="n">
-        <v>677313.5401505717</v>
+        <v>733454.8225222781</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.624297506984906e-06</v>
+        <v>4.487256278943449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>612671.6864941246</v>
+        <v>663454.9236710599</v>
       </c>
     </row>
     <row r="7">
@@ -27487,28 +27487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>474.8566841146003</v>
+        <v>515.8883112042625</v>
       </c>
       <c r="AB7" t="n">
-        <v>649.7198644039801</v>
+        <v>705.8611467756864</v>
       </c>
       <c r="AC7" t="n">
-        <v>587.7115124328204</v>
+        <v>638.4947496097558</v>
       </c>
       <c r="AD7" t="n">
-        <v>474856.6841146004</v>
+        <v>515888.3112042626</v>
       </c>
       <c r="AE7" t="n">
-        <v>649719.8644039801</v>
+        <v>705861.1467756864</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.672486483185262e-06</v>
+        <v>4.569654057951111e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.705555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>587711.5124328204</v>
+        <v>638494.7496097558</v>
       </c>
     </row>
     <row r="8">
@@ -27593,28 +27593,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>451.4930565870521</v>
+        <v>492.5246836767143</v>
       </c>
       <c r="AB8" t="n">
-        <v>617.7527184902873</v>
+        <v>673.8940008619937</v>
       </c>
       <c r="AC8" t="n">
-        <v>558.7952660589594</v>
+        <v>609.5785032358948</v>
       </c>
       <c r="AD8" t="n">
-        <v>451493.0565870521</v>
+        <v>492524.6836767144</v>
       </c>
       <c r="AE8" t="n">
-        <v>617752.7184902873</v>
+        <v>673894.0008619938</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.727792600485978e-06</v>
+        <v>4.664221355089137e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>558795.2660589594</v>
+        <v>609578.5032358948</v>
       </c>
     </row>
     <row r="9">
@@ -27699,28 +27699,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>431.4585460100818</v>
+        <v>472.319580899152</v>
       </c>
       <c r="AB9" t="n">
-        <v>590.3406172586497</v>
+        <v>646.2484878555092</v>
       </c>
       <c r="AC9" t="n">
-        <v>533.9993372957437</v>
+        <v>584.5714391900281</v>
       </c>
       <c r="AD9" t="n">
-        <v>431458.5460100818</v>
+        <v>472319.580899152</v>
       </c>
       <c r="AE9" t="n">
-        <v>590340.6172586497</v>
+        <v>646248.4878555092</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.769309256904746e-06</v>
+        <v>4.735210210849585e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.436111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>533999.3372957436</v>
+        <v>584571.439190028</v>
       </c>
     </row>
     <row r="10">
@@ -27805,28 +27805,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>421.5623019353612</v>
+        <v>462.4233368244313</v>
       </c>
       <c r="AB10" t="n">
-        <v>576.8001395241414</v>
+        <v>632.7080101210009</v>
       </c>
       <c r="AC10" t="n">
-        <v>521.7511437520369</v>
+        <v>572.3232456463213</v>
       </c>
       <c r="AD10" t="n">
-        <v>421562.3019353612</v>
+        <v>462423.3368244313</v>
       </c>
       <c r="AE10" t="n">
-        <v>576800.1395241414</v>
+        <v>632708.0101210009</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.781319432511603e-06</v>
+        <v>4.755746272694571e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.404166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>521751.143752037</v>
+        <v>572323.2456463213</v>
       </c>
     </row>
     <row r="11">
@@ -27911,28 +27911,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>420.8308685335536</v>
+        <v>461.6919034226237</v>
       </c>
       <c r="AB11" t="n">
-        <v>575.7993600752241</v>
+        <v>631.7072306720835</v>
       </c>
       <c r="AC11" t="n">
-        <v>520.8458772891214</v>
+        <v>571.4179791834058</v>
       </c>
       <c r="AD11" t="n">
-        <v>420830.8685335536</v>
+        <v>461691.9034226238</v>
       </c>
       <c r="AE11" t="n">
-        <v>575799.3600752241</v>
+        <v>631707.2306720834</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.78828829983904e-06</v>
+        <v>4.767662259197219e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.38611111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>520845.8772891214</v>
+        <v>571417.9791834058</v>
       </c>
     </row>
   </sheetData>
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.6288115488084</v>
+        <v>313.3184538825446</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.0227674953856</v>
+        <v>428.6961312367313</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.4219981063675</v>
+        <v>387.7819741502961</v>
       </c>
       <c r="AD2" t="n">
-        <v>272628.8115488084</v>
+        <v>313318.4538825447</v>
       </c>
       <c r="AE2" t="n">
-        <v>373022.7674953855</v>
+        <v>428696.1312367313</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.737055028088371e-06</v>
+        <v>5.866769586631696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.668055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>337421.9981063675</v>
+        <v>387781.9741502961</v>
       </c>
     </row>
   </sheetData>
@@ -28505,28 +28505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>669.7117415217715</v>
+        <v>725.8958645176763</v>
       </c>
       <c r="AB2" t="n">
-        <v>916.3291503469007</v>
+        <v>993.2027460984687</v>
       </c>
       <c r="AC2" t="n">
-        <v>828.8759823138319</v>
+        <v>898.4128699796391</v>
       </c>
       <c r="AD2" t="n">
-        <v>669711.7415217715</v>
+        <v>725895.8645176763</v>
       </c>
       <c r="AE2" t="n">
-        <v>916329.1503469008</v>
+        <v>993202.7460984687</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.082235044169268e-06</v>
+        <v>3.83637759111123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.89166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>828875.9823138318</v>
+        <v>898412.8699796392</v>
       </c>
     </row>
     <row r="3">
@@ -28611,28 +28611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.0824469540748</v>
+        <v>452.5101715083719</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.9341160677194</v>
+        <v>619.1443799975805</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.7312811307536</v>
+        <v>560.0541093452056</v>
       </c>
       <c r="AD3" t="n">
-        <v>415082.4469540748</v>
+        <v>452510.1715083718</v>
       </c>
       <c r="AE3" t="n">
-        <v>567934.1160677194</v>
+        <v>619144.3799975804</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.727269035579244e-06</v>
+        <v>5.024809203132983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.316666666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>513731.2811307536</v>
+        <v>560054.1093452056</v>
       </c>
     </row>
     <row r="4">
@@ -28717,28 +28717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>338.0993840137502</v>
+        <v>375.6123599140679</v>
       </c>
       <c r="AB4" t="n">
-        <v>462.6024930997259</v>
+        <v>513.9294016822362</v>
       </c>
       <c r="AC4" t="n">
-        <v>418.4523604249642</v>
+        <v>464.8807008901284</v>
       </c>
       <c r="AD4" t="n">
-        <v>338099.3840137502</v>
+        <v>375612.3599140679</v>
       </c>
       <c r="AE4" t="n">
-        <v>462602.4930997259</v>
+        <v>513929.4016822362</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.977280944654858e-06</v>
+        <v>5.485439278577363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.618055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>418452.3604249642</v>
+        <v>464880.7008901284</v>
       </c>
     </row>
     <row r="5">
@@ -28823,28 +28823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>334.849067188821</v>
+        <v>372.3620430891386</v>
       </c>
       <c r="AB5" t="n">
-        <v>458.1552662259997</v>
+        <v>509.48217480851</v>
       </c>
       <c r="AC5" t="n">
-        <v>414.4295706423443</v>
+        <v>460.8579111075085</v>
       </c>
       <c r="AD5" t="n">
-        <v>334849.067188821</v>
+        <v>372362.0430891386</v>
       </c>
       <c r="AE5" t="n">
-        <v>458155.2662259997</v>
+        <v>509482.17480851</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.982179936994681e-06</v>
+        <v>5.494465341453478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.605555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>414429.5706423443</v>
+        <v>460857.9111075085</v>
       </c>
     </row>
   </sheetData>
@@ -29120,28 +29120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>968.5241527397184</v>
+        <v>1036.435161571463</v>
       </c>
       <c r="AB2" t="n">
-        <v>1325.177474048492</v>
+        <v>1418.096312354346</v>
       </c>
       <c r="AC2" t="n">
-        <v>1198.704395823569</v>
+        <v>1282.755190613922</v>
       </c>
       <c r="AD2" t="n">
-        <v>968524.1527397183</v>
+        <v>1036435.161571463</v>
       </c>
       <c r="AE2" t="n">
-        <v>1325177.474048492</v>
+        <v>1418096.312354346</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.731335840816049e-06</v>
+        <v>3.092905129705112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.6125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1198704.39582357</v>
+        <v>1282755.190613922</v>
       </c>
     </row>
     <row r="3">
@@ -29226,28 +29226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>521.9982130515164</v>
+        <v>570.4816934014567</v>
       </c>
       <c r="AB3" t="n">
-        <v>714.2209840329447</v>
+        <v>780.5582207879271</v>
       </c>
       <c r="AC3" t="n">
-        <v>646.0567357322866</v>
+        <v>706.06283971627</v>
       </c>
       <c r="AD3" t="n">
-        <v>521998.2130515164</v>
+        <v>570481.6934014567</v>
       </c>
       <c r="AE3" t="n">
-        <v>714220.9840329447</v>
+        <v>780558.220787927</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.463836175211433e-06</v>
+        <v>4.401463520487542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.862500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>646056.7357322866</v>
+        <v>706062.83971627</v>
       </c>
     </row>
     <row r="4">
@@ -29332,28 +29332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>439.6565658645133</v>
+        <v>478.4263714821022</v>
       </c>
       <c r="AB4" t="n">
-        <v>601.5575096945933</v>
+        <v>654.604068143688</v>
       </c>
       <c r="AC4" t="n">
-        <v>544.145705260608</v>
+        <v>592.1295746226336</v>
       </c>
       <c r="AD4" t="n">
-        <v>439656.5658645133</v>
+        <v>478426.3714821022</v>
       </c>
       <c r="AE4" t="n">
-        <v>601557.5096945933</v>
+        <v>654604.068143688</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.72089521078483e-06</v>
+        <v>4.860680727812992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.024999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>544145.705260608</v>
+        <v>592129.5746226336</v>
       </c>
     </row>
     <row r="5">
@@ -29438,28 +29438,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>393.0832362240436</v>
+        <v>431.9382931876531</v>
       </c>
       <c r="AB5" t="n">
-        <v>537.8338254102102</v>
+        <v>590.9970285119543</v>
       </c>
       <c r="AC5" t="n">
-        <v>486.503719967574</v>
+        <v>534.5931015803118</v>
       </c>
       <c r="AD5" t="n">
-        <v>393083.2362240436</v>
+        <v>431938.2931876531</v>
       </c>
       <c r="AE5" t="n">
-        <v>537833.8254102103</v>
+        <v>590997.0285119544</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.829064395172901e-06</v>
+        <v>5.053917081721194e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.718055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>486503.719967574</v>
+        <v>534593.1015803118</v>
       </c>
     </row>
     <row r="6">
@@ -29544,28 +29544,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>364.3484116077376</v>
+        <v>403.0328763707549</v>
       </c>
       <c r="AB6" t="n">
-        <v>498.5175706791875</v>
+        <v>551.4473620060846</v>
       </c>
       <c r="AC6" t="n">
-        <v>450.9397534073699</v>
+        <v>498.8179997374565</v>
       </c>
       <c r="AD6" t="n">
-        <v>364348.4116077376</v>
+        <v>403032.8763707548</v>
       </c>
       <c r="AE6" t="n">
-        <v>498517.5706791875</v>
+        <v>551447.3620060846</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.912549623239857e-06</v>
+        <v>5.203057349054414e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.497222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>450939.7534073699</v>
+        <v>498817.9997374566</v>
       </c>
     </row>
     <row r="7">
@@ -29650,28 +29650,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>364.5573545511425</v>
+        <v>403.2418193141598</v>
       </c>
       <c r="AB7" t="n">
-        <v>498.8034556322663</v>
+        <v>551.7332469591634</v>
       </c>
       <c r="AC7" t="n">
-        <v>451.1983539017689</v>
+        <v>499.0766002318555</v>
       </c>
       <c r="AD7" t="n">
-        <v>364557.3545511425</v>
+        <v>403241.8193141598</v>
       </c>
       <c r="AE7" t="n">
-        <v>498803.4556322663</v>
+        <v>551733.2469591633</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.917266302791663e-06</v>
+        <v>5.21148335285855e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.486111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>451198.3539017689</v>
+        <v>499076.6002318555</v>
       </c>
     </row>
   </sheetData>
